--- a/Estimation_Records/delay-10ms second try/1MB 10 ms delay 2nd try.xlsx
+++ b/Estimation_Records/delay-10ms second try/1MB 10 ms delay 2nd try.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\delay-10ms second try\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester8\delayBit\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\delay-10ms second try\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5AD548-E2CD-4F0F-B834-AA9DC88702C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B32096-5155-4ACE-B20B-1FD7375BE23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F879301E-08CA-4326-8C5D-3530C81BCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>SERVER TO CLIENT:</t>
   </si>
@@ -61,12 +61,15 @@
   <si>
     <t>CLIENT TO SERVER:</t>
   </si>
+  <si>
+    <t>10ms Delay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,7 +212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -891,7 +902,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -929,7 +940,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -1015,7 +1026,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1053,7 +1064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -1095,7 +1106,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1132,7 +1143,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1222,7 +1233,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1868,7 +1879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1906,7 +1917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -1992,7 +2003,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2030,7 +2041,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -2072,7 +2083,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2109,7 +2120,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3311,520 +3322,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="8">
-          <cell r="B8">
-            <v>0.44779899999999984</v>
-          </cell>
-          <cell r="C8">
-            <v>416.358</v>
-          </cell>
-          <cell r="G8">
-            <v>0.50010499999999958</v>
-          </cell>
-          <cell r="H8">
-            <v>52.298000000000002</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.50010499999999958</v>
-          </cell>
-          <cell r="C9">
-            <v>52.298000000000002</v>
-          </cell>
-          <cell r="G9">
-            <v>0.54403699999999944</v>
-          </cell>
-          <cell r="H9">
-            <v>43.932000000000002</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.54403699999999944</v>
-          </cell>
-          <cell r="C10">
-            <v>43.932000000000002</v>
-          </cell>
-          <cell r="G10">
-            <v>0.60466999999999871</v>
-          </cell>
-          <cell r="H10">
-            <v>60.634</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.60466999999999871</v>
-          </cell>
-          <cell r="C11">
-            <v>60.634</v>
-          </cell>
-          <cell r="G11">
-            <v>0.63627900000000004</v>
-          </cell>
-          <cell r="H11">
-            <v>31.609000000000002</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.63627900000000004</v>
-          </cell>
-          <cell r="C12">
-            <v>31.609000000000002</v>
-          </cell>
-          <cell r="G12">
-            <v>0.67313899999999904</v>
-          </cell>
-          <cell r="H12">
-            <v>36.859000000000002</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.67313899999999904</v>
-          </cell>
-          <cell r="C13">
-            <v>36.859000000000002</v>
-          </cell>
-          <cell r="G13">
-            <v>0.73807399999999923</v>
-          </cell>
-          <cell r="H13">
-            <v>64.936000000000007</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.73807399999999923</v>
-          </cell>
-          <cell r="C14">
-            <v>64.936000000000007</v>
-          </cell>
-          <cell r="G14">
-            <v>0.78017399999999881</v>
-          </cell>
-          <cell r="H14">
-            <v>42.1</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.78017399999999881</v>
-          </cell>
-          <cell r="C15">
-            <v>42.1</v>
-          </cell>
-          <cell r="G15">
-            <v>0.80707499999999932</v>
-          </cell>
-          <cell r="H15">
-            <v>26.901</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.80707499999999932</v>
-          </cell>
-          <cell r="C16">
-            <v>26.901</v>
-          </cell>
-          <cell r="G16">
-            <v>0.8859849999999998</v>
-          </cell>
-          <cell r="H16">
-            <v>78.909000000000006</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.8859849999999998</v>
-          </cell>
-          <cell r="C17">
-            <v>78.909000000000006</v>
-          </cell>
-          <cell r="G17">
-            <v>0.92563399999999874</v>
-          </cell>
-          <cell r="H17">
-            <v>39.649000000000001</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.92563399999999874</v>
-          </cell>
-          <cell r="C18">
-            <v>39.649000000000001</v>
-          </cell>
-          <cell r="G18">
-            <v>0.96032499999999921</v>
-          </cell>
-          <cell r="H18">
-            <v>34.692</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.96032499999999921</v>
-          </cell>
-          <cell r="C19">
-            <v>34.692</v>
-          </cell>
-          <cell r="G19">
-            <v>1.0409699999999997</v>
-          </cell>
-          <cell r="H19">
-            <v>80.644999999999996</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>1.0409699999999997</v>
-          </cell>
-          <cell r="C20">
-            <v>80.644999999999996</v>
-          </cell>
-          <cell r="G20">
-            <v>1.0818069999999995</v>
-          </cell>
-          <cell r="H20">
-            <v>40.835999999999999</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>1.0818069999999995</v>
-          </cell>
-          <cell r="C21">
-            <v>40.835999999999999</v>
-          </cell>
-          <cell r="G21">
-            <v>1.1627789999999987</v>
-          </cell>
-          <cell r="H21">
-            <v>80.971999999999994</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>1.1627789999999987</v>
-          </cell>
-          <cell r="C22">
-            <v>80.971999999999994</v>
-          </cell>
-          <cell r="G22">
-            <v>1.2025670000000002</v>
-          </cell>
-          <cell r="H22">
-            <v>39.789000000000001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>1.2025670000000002</v>
-          </cell>
-          <cell r="C23">
-            <v>39.789000000000001</v>
-          </cell>
-          <cell r="G23">
-            <v>1.2498539999999991</v>
-          </cell>
-          <cell r="H23">
-            <v>47.286000000000001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>1.2498539999999991</v>
-          </cell>
-          <cell r="C24">
-            <v>47.286000000000001</v>
-          </cell>
-          <cell r="G24">
-            <v>1.3307269999999995</v>
-          </cell>
-          <cell r="H24">
-            <v>80.873000000000005</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.3307269999999995</v>
-          </cell>
-          <cell r="C25">
-            <v>80.873000000000005</v>
-          </cell>
-          <cell r="G25">
-            <v>1.366890999999999</v>
-          </cell>
-          <cell r="H25">
-            <v>36.164000000000001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>1.366890999999999</v>
-          </cell>
-          <cell r="C26">
-            <v>36.164000000000001</v>
-          </cell>
-          <cell r="G26">
-            <v>1.4603019999999987</v>
-          </cell>
-          <cell r="H26">
-            <v>93.411000000000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>1.4603019999999987</v>
-          </cell>
-          <cell r="C27">
-            <v>93.411000000000001</v>
-          </cell>
-          <cell r="G27">
-            <v>1.4864879999999996</v>
-          </cell>
-          <cell r="H27">
-            <v>26.186</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>1.4864879999999996</v>
-          </cell>
-          <cell r="C28">
-            <v>26.186</v>
-          </cell>
-          <cell r="G28">
-            <v>1.5149329999999992</v>
-          </cell>
-          <cell r="H28">
-            <v>28.446000000000002</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>1.5149329999999992</v>
-          </cell>
-          <cell r="C29">
-            <v>28.446000000000002</v>
-          </cell>
-          <cell r="G29">
-            <v>1.5861679999999989</v>
-          </cell>
-          <cell r="H29">
-            <v>71.234999999999999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>1.5861679999999989</v>
-          </cell>
-          <cell r="C30">
-            <v>71.234999999999999</v>
-          </cell>
-          <cell r="G30">
-            <v>1.6281269999999992</v>
-          </cell>
-          <cell r="H30">
-            <v>41.959000000000003</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>1.637713999999999</v>
-          </cell>
-          <cell r="C31">
-            <v>51.545000000000002</v>
-          </cell>
-          <cell r="G31">
-            <v>1.7178979999999999</v>
-          </cell>
-          <cell r="H31">
-            <v>89.77</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>1.664223999999999</v>
-          </cell>
-          <cell r="C32">
-            <v>26.51</v>
-          </cell>
-          <cell r="G32">
-            <v>1.789337999999999</v>
-          </cell>
-          <cell r="H32">
-            <v>71.441000000000003</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>1.7154949999999989</v>
-          </cell>
-          <cell r="C33">
-            <v>51.271000000000001</v>
-          </cell>
-          <cell r="G33">
-            <v>1.8129869999999997</v>
-          </cell>
-          <cell r="H33">
-            <v>23.648</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>1.7179729999999989</v>
-          </cell>
-          <cell r="C34">
-            <v>2.4790000000000001</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>1.789337999999999</v>
-          </cell>
-          <cell r="C35">
-            <v>71.364999999999995</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>1.8129869999999997</v>
-          </cell>
-          <cell r="C36">
-            <v>23.648</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>1.909006999999999</v>
-          </cell>
-          <cell r="C37">
-            <v>96.02</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>1.9294279999999997</v>
-          </cell>
-          <cell r="C38">
-            <v>20.422000000000001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>1.9770789999999998</v>
-          </cell>
-          <cell r="C39">
-            <v>47.65</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>2.0546239999999987</v>
-          </cell>
-          <cell r="C40">
-            <v>77.545000000000002</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>2.1073829999999987</v>
-          </cell>
-          <cell r="C41">
-            <v>52.76</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>2.1362089999999991</v>
-          </cell>
-          <cell r="C42">
-            <v>28.826000000000001</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>2.1715179999999989</v>
-          </cell>
-          <cell r="C43">
-            <v>35.308999999999997</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>2.2208959999999998</v>
-          </cell>
-          <cell r="C44">
-            <v>49.378</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>2.2445019999999989</v>
-          </cell>
-          <cell r="C45">
-            <v>23.606000000000002</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>2.3165779999999998</v>
-          </cell>
-          <cell r="C46">
-            <v>72.075000000000003</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>2.3233789999999992</v>
-          </cell>
-          <cell r="C47">
-            <v>6.8019999999999996</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>2.3608199999999986</v>
-          </cell>
-          <cell r="C48">
-            <v>37.441000000000003</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>2.3887330000000002</v>
-          </cell>
-          <cell r="C49">
-            <v>27.911999999999999</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>2.418374</v>
-          </cell>
-          <cell r="C50">
-            <v>29.641999999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4124,14 +3621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02437C0D-00FD-4B74-96FB-66F97659E713}">
-  <dimension ref="A3:M91"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:8" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
